--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03194130719343383</v>
+        <v>0.03242096466023737</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03061147173693344</v>
+        <v>0.02919086325878126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1181949154577372</v>
+        <v>0.1162044465153021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1121142372497382</v>
+        <v>0.1117467383822846</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1105364332379514</v>
+        <v>0.1097388075767182</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2261283782239363</v>
+        <v>0.2277162097945147</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07761940098601668</v>
+        <v>0.07663467436259561</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07676479323844</v>
+        <v>0.07658279349157544</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1854332123622684</v>
+        <v>0.1851317268415293</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05816359084101307</v>
+        <v>0.06032301998683059</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05434916533959452</v>
+        <v>0.05325261715907359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.180575293220172</v>
+        <v>0.1799023675757413</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.153852766389937</v>
+        <v>0.1518377929643273</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1503375083458595</v>
+        <v>0.1504023738301263</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2831471764115697</v>
+        <v>0.2822336501330133</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1029024579468689</v>
+        <v>0.103163107220536</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1009061343642109</v>
+        <v>0.1006438433314717</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2289827524061749</v>
+        <v>0.2287762993762371</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02078222904725227</v>
+        <v>0.02109124933174988</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01851079553635643</v>
+        <v>0.01899092214721608</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05660560085975403</v>
+        <v>0.05671100252625341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06767060056744477</v>
+        <v>0.06877424424045706</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05805359792883329</v>
+        <v>0.05921221762994321</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1455782425174604</v>
+        <v>0.1466573693301602</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04986451206476557</v>
+        <v>0.0492783087083179</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04379816419261453</v>
+        <v>0.04309024194624313</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1080463439558539</v>
+        <v>0.1092756239459037</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04511312211500396</v>
+        <v>0.04620113922427601</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04063491605795187</v>
+        <v>0.04068465877980888</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08480248718831247</v>
+        <v>0.08717484519351772</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1035617531573943</v>
+        <v>0.1041137630420385</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09271891092535715</v>
+        <v>0.0949092558761075</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1853898781423274</v>
+        <v>0.1834049683956161</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07078016687557888</v>
+        <v>0.0716136492057287</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06352487462822974</v>
+        <v>0.06373182472080079</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1334443041368382</v>
+        <v>0.1336899746274214</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.05901459029315853</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.114257785194668</v>
+        <v>0.1142577851946681</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.05264945326566529</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02586071526777228</v>
+        <v>0.02601691557878409</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01911206770723544</v>
+        <v>0.01929377915923668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0385228273628617</v>
+        <v>0.03824067524668844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05270533722400635</v>
+        <v>0.05296147783482226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04257545829495194</v>
+        <v>0.04417984930983747</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09832077106391982</v>
+        <v>0.09907114798993569</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04288854302103344</v>
+        <v>0.04225557996439287</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0344013626774757</v>
+        <v>0.0333414897005635</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07263116577005181</v>
+        <v>0.07109340634578003</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05116479905463011</v>
+        <v>0.05015849176976363</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04259818958002434</v>
+        <v>0.04104261236061146</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06231841023817045</v>
+        <v>0.06228356274460611</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08738253866309983</v>
+        <v>0.08878489911812945</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07856176686224037</v>
+        <v>0.08007529412793934</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1303182533268573</v>
+        <v>0.1302348080399356</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06441428275648466</v>
+        <v>0.0645188682742121</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05515548040963602</v>
+        <v>0.0546909089352107</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09270303574342345</v>
+        <v>0.0918790314030149</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01460076529311511</v>
+        <v>0.0145554937136446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00888683258092202</v>
+        <v>0.008943790395755154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04394165828266836</v>
+        <v>0.04451032725378833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03509719995531742</v>
+        <v>0.03723809960296213</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03795463569453193</v>
+        <v>0.03844803177243667</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08761722775365263</v>
+        <v>0.08796039315467021</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03043243420522004</v>
+        <v>0.02960173967373483</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02598127064449882</v>
+        <v>0.02651337141030052</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0700372272384672</v>
+        <v>0.06930763029694129</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04804085249736228</v>
+        <v>0.0483810626290756</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03576446589966677</v>
+        <v>0.03571627845349516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07289118498994791</v>
+        <v>0.07193467268260284</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08457561375155552</v>
+        <v>0.08713342218717506</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08616304898940305</v>
+        <v>0.08444819405359268</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1191193838941372</v>
+        <v>0.1179631519982663</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05792996662229755</v>
+        <v>0.05660507310956717</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05288183344367283</v>
+        <v>0.05311079749947144</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0905561083346043</v>
+        <v>0.08959987510685399</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02983577853798713</v>
+        <v>0.02947442479219111</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02479720358427869</v>
+        <v>0.02530340982730378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06351131251349598</v>
+        <v>0.06286051114450357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08300006541022421</v>
+        <v>0.08182915121175889</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07914097572730668</v>
+        <v>0.07926142690400449</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1404499844167973</v>
+        <v>0.1407798033098419</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05861887364440026</v>
+        <v>0.05863184104026548</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0549840344215</v>
+        <v>0.05448188757873682</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.105145920397875</v>
+        <v>0.1055378811633939</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04333864516513215</v>
+        <v>0.04318175140635769</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03727160886834197</v>
+        <v>0.03743534304300818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07965024989432459</v>
+        <v>0.07882915710592266</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1032450648372672</v>
+        <v>0.1030222597137867</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1001333488627565</v>
+        <v>0.1000682729010831</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1596598405642624</v>
+        <v>0.1596385551786953</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07089101525617295</v>
+        <v>0.07095096490536112</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06715243482129546</v>
+        <v>0.06698527785864258</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1174685615857759</v>
+        <v>0.1176178586083391</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33345</v>
+        <v>33845</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34530</v>
+        <v>32927</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>58948</v>
+        <v>57956</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>125560</v>
+        <v>125148</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>139227</v>
+        <v>138223</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>141009</v>
+        <v>141999</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>167958</v>
+        <v>165827</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>183280</v>
+        <v>182846</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>208115</v>
+        <v>207777</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60719</v>
+        <v>62973</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61306</v>
+        <v>60069</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>90060</v>
+        <v>89724</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>172304</v>
+        <v>170047</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>189359</v>
+        <v>189441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>176565</v>
+        <v>175995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>222667</v>
+        <v>223231</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>240919</v>
+        <v>240293</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>256992</v>
+        <v>256760</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20306</v>
+        <v>20608</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16823</v>
+        <v>17259</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>54349</v>
+        <v>54450</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>74049</v>
+        <v>75257</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>58429</v>
+        <v>59596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>162443</v>
+        <v>163647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>103286</v>
+        <v>102072</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>83887</v>
+        <v>82531</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>224303</v>
+        <v>226855</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44079</v>
+        <v>45142</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36930</v>
+        <v>36975</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>81422</v>
+        <v>83700</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>113324</v>
+        <v>113928</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>93319</v>
+        <v>95524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>206867</v>
+        <v>204652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>146609</v>
+        <v>148336</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>121669</v>
+        <v>122066</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>277029</v>
+        <v>277539</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22890</v>
+        <v>23028</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15744</v>
+        <v>15893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40313</v>
+        <v>40018</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>46159</v>
+        <v>46383</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>32828</v>
+        <v>34065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>103005</v>
+        <v>103791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>75523</v>
+        <v>74408</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>54864</v>
+        <v>53174</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>152098</v>
+        <v>148878</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45287</v>
+        <v>44396</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35091</v>
+        <v>33809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>65215</v>
+        <v>65178</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>76529</v>
+        <v>77757</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>60576</v>
+        <v>61743</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>136527</v>
+        <v>136439</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>113428</v>
+        <v>113612</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>87963</v>
+        <v>87222</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>194131</v>
+        <v>192406</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7345</v>
+        <v>7322</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4503</v>
+        <v>4532</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>42884</v>
+        <v>43439</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15890</v>
+        <v>16859</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18586</v>
+        <v>18828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>79762</v>
+        <v>80074</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>29086</v>
+        <v>28292</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25888</v>
+        <v>26418</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>132109</v>
+        <v>130733</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24166</v>
+        <v>24337</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18122</v>
+        <v>18097</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71137</v>
+        <v>70203</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>38290</v>
+        <v>39448</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42194</v>
+        <v>41354</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>108440</v>
+        <v>107387</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>55367</v>
+        <v>54101</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52691</v>
+        <v>52919</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>170814</v>
+        <v>169010</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>101714</v>
+        <v>100483</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>83499</v>
+        <v>85204</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>221101</v>
+        <v>218835</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>294046</v>
+        <v>289898</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>279114</v>
+        <v>279539</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>519302</v>
+        <v>520521</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>407511</v>
+        <v>407601</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>379064</v>
+        <v>375602</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>754811</v>
+        <v>757625</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>147748</v>
+        <v>147213</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>125504</v>
+        <v>126055</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>277285</v>
+        <v>274427</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>365769</v>
+        <v>364979</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>353149</v>
+        <v>352920</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>590329</v>
+        <v>590250</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>492825</v>
+        <v>493242</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>462954</v>
+        <v>461802</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>843272</v>
+        <v>844343</v>
       </c>
     </row>
     <row r="24">
